--- a/src/Tests/AnalisisResultadosTFG.xlsx
+++ b/src/Tests/AnalisisResultadosTFG.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2511ce0c914bc55b/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="8_{DF862C91-6414-4CD4-8F0E-F4053250A3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C73EDF89-D6D4-4472-A3B8-4774CF24D5E0}"/>
+  <xr:revisionPtr revIDLastSave="1091" documentId="8_{DF862C91-6414-4CD4-8F0E-F4053250A3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27BAAEBF-4F09-4DCD-8CE2-ACB89D6DFBD0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A9350DCB-E129-42B0-B83E-42A25EB574AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A9350DCB-E129-42B0-B83E-42A25EB574AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Latencia" sheetId="1" r:id="rId1"/>
     <sheet name="Precisión" sheetId="2" r:id="rId2"/>
+    <sheet name="Beat Detector" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="105">
   <si>
     <t>Canción</t>
   </si>
@@ -233,6 +235,123 @@
   <si>
     <t>F1 Score 2</t>
   </si>
+  <si>
+    <t>t = 30 s</t>
+  </si>
+  <si>
+    <t>t = 25 s</t>
+  </si>
+  <si>
+    <t>t = 20 s</t>
+  </si>
+  <si>
+    <t>Take me Home Country Road</t>
+  </si>
+  <si>
+    <t>Medida 1</t>
+  </si>
+  <si>
+    <t>Medida 2</t>
+  </si>
+  <si>
+    <t>Medida 3</t>
+  </si>
+  <si>
+    <t>Medida 4</t>
+  </si>
+  <si>
+    <t>Medida 5</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>Gettin Over You</t>
+  </si>
+  <si>
+    <t>Forever Young</t>
+  </si>
+  <si>
+    <t>Summer of 69</t>
+  </si>
+  <si>
+    <t>Smells Like Teen Spirit</t>
+  </si>
+  <si>
+    <t>The Blue Danube</t>
+  </si>
+  <si>
+    <t>Game of Thrones Soundtrack</t>
+  </si>
+  <si>
+    <t>Red Red Wine</t>
+  </si>
+  <si>
+    <t>Beautiful Girls</t>
+  </si>
+  <si>
+    <t>We dem Boyz</t>
+  </si>
+  <si>
+    <t>Fine China</t>
+  </si>
+  <si>
+    <t>Blinding Lights</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>John Denver</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Alphaville</t>
+  </si>
+  <si>
+    <t>Brian Adams</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Strauss</t>
+  </si>
+  <si>
+    <t>Ramin Djawadi</t>
+  </si>
+  <si>
+    <t>UB40</t>
+  </si>
+  <si>
+    <t>Will Kalifa</t>
+  </si>
+  <si>
+    <t>Kayne West</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Danny Avila</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
 </sst>
 </file>
 
@@ -284,13 +403,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,22 +543,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -507,22 +626,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -590,22 +709,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,22 +792,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,22 +875,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,22 +958,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -924,22 +1043,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1009,22 +1128,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1094,22 +1213,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1179,22 +1298,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1264,22 +1383,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1349,22 +1468,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1435,22 +1554,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>t = 30 s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t = 25 s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t = 20 s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t = 15 s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t = 10 s</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>t = 5 s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t = 10 s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>t = 15 s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>t = 20s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>t = 25s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>t = 30s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4530,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B778D-32CE-433C-8C78-57C12C63BDF9}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="G35" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5166,7 +5285,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H10:H13" si="1">E11*3</f>
+        <f t="shared" ref="H11:H12" si="1">E11*3</f>
         <v>1.02</v>
       </c>
       <c r="I11" t="s">
@@ -5649,22 +5768,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
         <v>38</v>
-      </c>
-      <c r="L20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -5690,7 +5809,7 @@
         <v>25</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H25" si="4">E21*3</f>
+        <f t="shared" ref="H21:H24" si="4">E21*3</f>
         <v>1.44</v>
       </c>
       <c r="J21" t="s">
@@ -5978,7 +6097,7 @@
         <v>25</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H43" si="5">E27*3-3*F27</f>
+        <f t="shared" ref="H27:H37" si="5">E27*3-3*F27</f>
         <v>0.3600000000000001</v>
       </c>
       <c r="J27" t="s">
@@ -6503,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H39:H43" si="7">E40*3-0*F40</f>
+        <f t="shared" ref="H40:H42" si="7">E40*3-0*F40</f>
         <v>0.84000000000000008</v>
       </c>
     </row>
@@ -6961,7 +7080,7 @@
         <v>25</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H61" si="9">3*E57</f>
+        <f t="shared" ref="H57:H59" si="9">3*E57</f>
         <v>1.62</v>
       </c>
     </row>
@@ -7447,7 +7566,7 @@
         <v>25</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75:H79" si="12">3*E75</f>
+        <f t="shared" ref="H75:H77" si="12">3*E75</f>
         <v>1.29</v>
       </c>
     </row>
@@ -7571,26 +7690,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440619C-BF9A-4531-98BF-04D803989549}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="R25" sqref="M14:R25"/>
+    <sheetView topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8169,19 +8288,19 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="M13" s="1" t="s">
         <v>44</v>
       </c>
@@ -8766,35 +8885,35 @@
       <c r="M24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>0.18999999999999995</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="2">
         <v>0.1499999999999998</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="2">
         <v>6.4114746750336182E-2</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="2">
         <v>0.39411474675033592</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="M25" s="1" t="s">
         <v>44</v>
       </c>
@@ -8927,7 +9046,7 @@
         <v>0.8</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C29:C37" si="3">1-SUM(B18:B26)</f>
+        <f t="shared" ref="C31" si="3">1-SUM(B18:B26)</f>
         <v>0.85</v>
       </c>
       <c r="D31">
@@ -9439,4 +9558,963 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5A1E8-3080-405D-B88D-FBC052754A85}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>155</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>163</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G16" si="0">AVERAGE(B2:F2)</f>
+        <v>162</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H16" si="1">VAR(B2:F2)</f>
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>164</v>
+      </c>
+      <c r="J2">
+        <f>ABS(I2-G2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>162</v>
+      </c>
+      <c r="S2">
+        <v>164</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>127</v>
+      </c>
+      <c r="C3">
+        <v>140</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>135</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>132.6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>215.3</v>
+      </c>
+      <c r="I3">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="2">ABS(I3-G3)</f>
+        <v>8.5999999999999943</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>132.6</v>
+      </c>
+      <c r="S3">
+        <v>124</v>
+      </c>
+      <c r="T3">
+        <v>8.5999999999999943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>141</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>142.4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>23.3</v>
+      </c>
+      <c r="I4">
+        <v>148</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>142.4</v>
+      </c>
+      <c r="S4">
+        <v>148</v>
+      </c>
+      <c r="T4">
+        <v>5.5999999999999943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>138</v>
+      </c>
+      <c r="D5">
+        <v>132</v>
+      </c>
+      <c r="E5">
+        <v>135</v>
+      </c>
+      <c r="F5">
+        <v>126</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>132.4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="I5">
+        <v>130</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>132.4</v>
+      </c>
+      <c r="S5">
+        <v>130</v>
+      </c>
+      <c r="T5">
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>139</v>
+      </c>
+      <c r="F6">
+        <v>138</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>137.80000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="I6">
+        <v>137</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="S6">
+        <v>137</v>
+      </c>
+      <c r="T6">
+        <v>0.80000000000001137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>143</v>
+      </c>
+      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <v>143</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="I7">
+        <v>139</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>141</v>
+      </c>
+      <c r="S7">
+        <v>139</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>111</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>118.6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>41.300000000000004</v>
+      </c>
+      <c r="I8">
+        <v>117</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>118.6</v>
+      </c>
+      <c r="S8">
+        <v>117</v>
+      </c>
+      <c r="T8">
+        <v>1.5999999999999943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>90</v>
+      </c>
+      <c r="S9">
+        <v>90</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>166</v>
+      </c>
+      <c r="E10">
+        <v>172</v>
+      </c>
+      <c r="F10">
+        <v>171</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>169.6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="I10">
+        <v>170</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10">
+        <v>169.6</v>
+      </c>
+      <c r="S10">
+        <v>170</v>
+      </c>
+      <c r="T10">
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>133</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>109</v>
+      </c>
+      <c r="F11">
+        <v>119</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>116.6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>243.29999999999927</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>27.599999999999994</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>116.6</v>
+      </c>
+      <c r="S11">
+        <v>89</v>
+      </c>
+      <c r="T11">
+        <v>27.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>127</v>
+      </c>
+      <c r="C12">
+        <v>136</v>
+      </c>
+      <c r="D12">
+        <v>132</v>
+      </c>
+      <c r="E12">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>136</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>132.6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="I12">
+        <v>130</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12">
+        <v>132.6</v>
+      </c>
+      <c r="S12">
+        <v>130</v>
+      </c>
+      <c r="T12">
+        <v>2.5999999999999943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>139</v>
+      </c>
+      <c r="F13">
+        <v>127</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>130.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>28.299999999999997</v>
+      </c>
+      <c r="I13">
+        <v>130</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>130.4</v>
+      </c>
+      <c r="S13">
+        <v>130</v>
+      </c>
+      <c r="T13">
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>138</v>
+      </c>
+      <c r="C14">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>137</v>
+      </c>
+      <c r="F14">
+        <v>133</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>133.6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="I14">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>133.6</v>
+      </c>
+      <c r="S14">
+        <v>130</v>
+      </c>
+      <c r="T14">
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>165</v>
+      </c>
+      <c r="C15">
+        <v>156</v>
+      </c>
+      <c r="D15">
+        <v>172</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>158</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>164.2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>50.199999999999996</v>
+      </c>
+      <c r="I15">
+        <v>166</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15">
+        <v>164.2</v>
+      </c>
+      <c r="S15">
+        <v>166</v>
+      </c>
+      <c r="T15">
+        <v>1.8000000000000114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <v>169</v>
+      </c>
+      <c r="C16">
+        <v>167</v>
+      </c>
+      <c r="D16">
+        <v>168</v>
+      </c>
+      <c r="E16">
+        <v>163</v>
+      </c>
+      <c r="F16">
+        <v>165</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>166.4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="I16">
+        <v>171</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16">
+        <v>166.4</v>
+      </c>
+      <c r="S16">
+        <v>171</v>
+      </c>
+      <c r="T16">
+        <v>4.5999999999999943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>